--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1760945.41996827</v>
+        <v>1855528.32925737</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>357.5596849804909</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>160.9271104665245</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>87.02034412070419</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>208.9978294690248</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>279.645361994305</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>123.2751712461471</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>57.68157701938526</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>234.3107022885809</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>318.4580342919699</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>280.1044294139168</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250815</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229326</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>77.15919157187281</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>4.56413492539098</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0.7644211441604659</v>
+        <v>84.90263063648618</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1768,16 +1768,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>75.87801955598076</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -1816,16 +1816,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>60.25574836862804</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>110.8114120132048</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2296,16 +2296,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>7.959851652141372</v>
+        <v>19.23217548769962</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2372,7 +2372,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>84.28618309059028</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>73.01852064932153</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722634</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>21.21224374176707</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>237.3965091869248</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>31.26947999741186</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +2998,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750035</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3083,7 +3083,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3244,16 +3244,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>176.8688121773851</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>190.7955476484028</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113188</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3718,7 +3718,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404427</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3794,7 +3794,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>183.1796758467</v>
+        <v>124.1444579481083</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,19 +4135,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>23.4728401430365</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,10 +4198,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>589.4492616060802</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>589.4492616060802</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>589.4492616060802</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1739.654191907093</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="X2" t="n">
-        <v>1366.188433646014</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="Y2" t="n">
-        <v>976.0491016702019</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,16 +4407,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>610.8127275643956</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>610.8127275643956</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>383.5045402329973</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>383.5045402329973</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>383.5045402329973</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="W4" t="n">
-        <v>383.5045402329973</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="X4" t="n">
-        <v>383.5045402329973</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="Y4" t="n">
-        <v>383.5045402329973</v>
+        <v>517.0200655508536</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2247.308246834948</v>
+        <v>589.4492616060802</v>
       </c>
       <c r="C5" t="n">
-        <v>1878.345729894537</v>
+        <v>589.4492616060802</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>589.4492616060802</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>589.4492616060802</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>178.4633568164726</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X5" t="n">
-        <v>2247.308246834948</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y5" t="n">
-        <v>2247.308246834948</v>
+        <v>976.0491016702019</v>
       </c>
     </row>
     <row r="6">
@@ -4650,19 +4650,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>269.9555735993346</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>112.2072010318647</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>336.2769833124028</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>99.59950625323012</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>935.7408973472325</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="C8" t="n">
-        <v>614.0661152341315</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D8" t="n">
-        <v>614.0661152341315</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358873</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224082</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332394</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304457</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942548</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942548</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W8" t="n">
-        <v>1695.806495672434</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X8" t="n">
-        <v>1322.340737411354</v>
+        <v>1851.286880367297</v>
       </c>
       <c r="Y8" t="n">
-        <v>1322.340737411354</v>
+        <v>1568.353113282533</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204944</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641981</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598701</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>131.8815591656906</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036448</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036448</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036448</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036448</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036448</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064349</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406189</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406189</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T10" t="n">
-        <v>352.6741383092207</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U10" t="n">
-        <v>352.6741383092207</v>
+        <v>409.5384547146242</v>
       </c>
       <c r="V10" t="n">
-        <v>352.6741383092207</v>
+        <v>409.5384547146242</v>
       </c>
       <c r="W10" t="n">
-        <v>352.6741383092207</v>
+        <v>409.5384547146242</v>
       </c>
       <c r="X10" t="n">
-        <v>352.6741383092207</v>
+        <v>409.5384547146242</v>
       </c>
       <c r="Y10" t="n">
-        <v>131.8815591656906</v>
+        <v>404.9282174162495</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5033,58 +5033,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>138.7081686256435</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>681.8202447131888</v>
+        <v>658.5774644300484</v>
       </c>
       <c r="M12" t="n">
-        <v>1002.155564242891</v>
+        <v>1426.94561082251</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880509</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>674.2349604684849</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="C13" t="n">
-        <v>674.2349604684849</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="D13" t="n">
-        <v>674.2349604684849</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684849</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>674.2349604684849</v>
+        <v>1413.156037591755</v>
       </c>
       <c r="W13" t="n">
-        <v>674.2349604684849</v>
+        <v>1123.738867554794</v>
       </c>
       <c r="X13" t="n">
-        <v>674.2349604684849</v>
+        <v>895.7493166567767</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.2349604684849</v>
+        <v>674.9567375132466</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5264,16 +5264,16 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
@@ -5297,31 +5297,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>880.8106280646855</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.130761344647</v>
+        <v>1429.324563341649</v>
       </c>
       <c r="N15" t="n">
-        <v>1517.99338900868</v>
+        <v>1759.187191005682</v>
       </c>
       <c r="O15" t="n">
-        <v>1797.533454227377</v>
+        <v>2038.727256224379</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
         <v>2612.943493278838</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>898.7925182488384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C16" t="n">
-        <v>898.7925182488384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D16" t="n">
-        <v>822.148054050878</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684849</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705745</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
         <v>359.1696912903951</v>
@@ -5431,7 +5431,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5464,22 +5464,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>898.7925182488384</v>
+        <v>903.2713495332425</v>
       </c>
       <c r="V16" t="n">
-        <v>898.7925182488384</v>
+        <v>648.5868613273557</v>
       </c>
       <c r="W16" t="n">
-        <v>898.7925182488384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="X16" t="n">
-        <v>898.7925182488384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y16" t="n">
-        <v>898.7925182488384</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="17">
@@ -5492,49 +5492,49 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5546,13 +5546,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>2525.058920465859</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>2771.824048372323</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>3540.192194764784</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="N18" t="n">
-        <v>4289.159124556163</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>4568.69918977486</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>696.5850465240062</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9110074201016</v>
+        <v>468.5954956259889</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>468.5954956259889</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003444</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155918</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805478</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514095</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>2881.956579893676</v>
       </c>
       <c r="L21" t="n">
-        <v>674.428562457161</v>
+        <v>3128.721707800139</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>3436.041841080101</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>3765.904468744134</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>4045.444533962831</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698579</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>412.2823606383756</v>
+        <v>3907.801489902814</v>
       </c>
       <c r="C22" t="n">
-        <v>412.2823606383756</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2823606383756</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.921157035281</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247865</v>
+        <v>4437.149147719352</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383447</v>
+        <v>4148.02050893291</v>
       </c>
       <c r="V22" t="n">
-        <v>420.3226148324578</v>
+        <v>4148.02050893291</v>
       </c>
       <c r="W22" t="n">
-        <v>412.2823606383756</v>
+        <v>4128.594069046345</v>
       </c>
       <c r="X22" t="n">
-        <v>412.2823606383756</v>
+        <v>4128.594069046345</v>
       </c>
       <c r="Y22" t="n">
-        <v>412.2823606383756</v>
+        <v>3907.801489902814</v>
       </c>
     </row>
     <row r="23">
@@ -5966,37 +5966,37 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619128</v>
@@ -6011,22 +6011,22 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6063,22 +6063,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>319.4661068121551</v>
+        <v>176.3075386346568</v>
       </c>
       <c r="L24" t="n">
-        <v>566.2312347186191</v>
+        <v>176.3075386346568</v>
       </c>
       <c r="M24" t="n">
-        <v>1334.599381111081</v>
+        <v>944.6756850271183</v>
       </c>
       <c r="N24" t="n">
-        <v>2139.010959375231</v>
+        <v>1749.087263291269</v>
       </c>
       <c r="O24" t="n">
         <v>2418.551024593929</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>321.3911813763037</v>
+        <v>795.4496523104684</v>
       </c>
       <c r="C25" t="n">
-        <v>321.3911813763037</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D25" t="n">
-        <v>321.3911813763037</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E25" t="n">
-        <v>321.3911813763037</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V25" t="n">
-        <v>1020.446367141521</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W25" t="n">
-        <v>731.0291971045608</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="X25" t="n">
-        <v>503.0396462065435</v>
+        <v>1016.242231453999</v>
       </c>
       <c r="Y25" t="n">
-        <v>503.0396462065435</v>
+        <v>795.4496523104684</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690735</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409608</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748357</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742901</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769786</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373971</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805659</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250805</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095318</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>3525.606699852206</v>
       </c>
       <c r="M27" t="n">
-        <v>2056.693778606511</v>
+        <v>3850.898171950301</v>
       </c>
       <c r="N27" t="n">
-        <v>2623.573505376138</v>
+        <v>4180.760799614334</v>
       </c>
       <c r="O27" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916994</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916994</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916994</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098069</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021847</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641234</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409491</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475757</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710803</v>
       </c>
     </row>
     <row r="28">
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005286</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>835.416391538794</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305963</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,49 +6458,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>232.3332043549315</v>
       </c>
       <c r="L30" t="n">
-        <v>674.4285624571609</v>
+        <v>479.0983322613956</v>
       </c>
       <c r="M30" t="n">
-        <v>1442.796708849623</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>2247.208287113773</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>760.7169704793947</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>591.7807875514878</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>591.7807875514878</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>443.8676939690947</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>296.9777464711843</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>128.8024247910049</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>128.8024247910049</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6637,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>981.5095496229249</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>760.7169704793947</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,7 +6689,7 @@
         <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6701,25 +6701,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6734,16 +6734,16 @@
         <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,13 +6765,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6780,22 +6780,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M33" t="n">
         <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>2107.322705390779</v>
+        <v>2107.32270539078</v>
       </c>
       <c r="O33" t="n">
-        <v>2386.862770609477</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2591.885251391686</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6862,10 +6862,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6874,31 +6874,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>496.6650364395585</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
         <v>97.21709146028584</v>
@@ -6914,7 +6914,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6935,28 +6935,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -6974,7 +6974,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7014,25 +7014,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>485.4047026089406</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>732.1698305154048</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014293</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4668.131797611866</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>4379.003158825424</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V37" t="n">
-        <v>4379.003158825424</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W37" t="n">
-        <v>4089.585988788464</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X37" t="n">
-        <v>3861.596437890446</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>3640.803858746916</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7151,31 +7151,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805481</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7187,16 +7187,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231265</v>
@@ -7205,13 +7205,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="M39" t="n">
-        <v>921.1936903636249</v>
+        <v>1031.90644000511</v>
       </c>
       <c r="N39" t="n">
-        <v>1251.056318027658</v>
+        <v>1433.809122337731</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,22 +7348,22 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V40" t="n">
         <v>614.6238123952638</v>
@@ -7372,10 +7372,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7406,13 +7406,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7424,37 +7424,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690735</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409608</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748357</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742901</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769786</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373971</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805659</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.9892362638</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>2525.05892046586</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>2771.824048372324</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>3540.192194764785</v>
       </c>
       <c r="N42" t="n">
-        <v>2107.322705390779</v>
+        <v>4344.603773028936</v>
       </c>
       <c r="O42" t="n">
-        <v>2386.862770609477</v>
+        <v>4624.143838247634</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>4829.166319029843</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098069</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021847</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641234</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409491</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475757</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710803</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>4334.963857167332</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>4166.027674239425</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>4015.911034827089</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>3867.997941244696</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>4624.381027204293</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>4624.381027204293</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>4334.963857167332</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>4334.963857167332</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>4334.963857167332</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>436.8967109626374</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>1050.793780719526</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M45" t="n">
-        <v>1819.161927111988</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4095.960335627916</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C46" t="n">
-        <v>4072.250396089495</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D46" t="n">
-        <v>3922.133756677159</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E46" t="n">
-        <v>3774.220663094766</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F46" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014293</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T46" t="n">
-        <v>4860.854573014293</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>4860.854573014293</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>4606.170084808407</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>4316.752914771446</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>4316.752914771446</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y46" t="n">
-        <v>4095.960335627916</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,10 +8787,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503149</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>219.2041188937617</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>32.00833735803209</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,7 +9729,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9960,13 +9960,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>18.15286749306375</v>
       </c>
       <c r="N27" t="n">
-        <v>239.4112112177721</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10203,16 +10203,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>73.53204524669945</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10683,10 +10683,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,28 +10902,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>72.7677319884736</v>
       </c>
       <c r="O39" t="n">
-        <v>280.3707909882044</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>24.5340738867973</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>251.3732221796675</v>
+        <v>167.2350126873418</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,16 +23656,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>72.7374534622316</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23704,16 +23704,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>225.9816040299493</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>69.0205681687325</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>278.5631466844496</v>
+        <v>267.2908228488914</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>82.96063800803755</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>72.40252737360971</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24415,7 +24415,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>158.6197364401702</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24649,16 +24649,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>48.84084321165253</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>79.1497654668601</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24886,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338571</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25132,16 +25132,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>48.84084321165204</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25360,25 +25360,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>30.75201340998649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25597,7 +25597,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>82.39383318338528</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>103.0576765518773</v>
+        <v>162.092894450469</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,19 +26023,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>143.7739809555913</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26071,13 +26071,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491889</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821161.0254491889</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491889</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>821161.0254491887</v>
+        <v>821161.0254491889</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491889</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>821161.0254491889</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049991</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049989</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="H2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="I2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="J2" t="n">
         <v>547440.6836327923</v>
       </c>
-      <c r="J2" t="n">
-        <v>547440.6836327922</v>
-      </c>
       <c r="K2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="L2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="M2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327916</v>
       </c>
       <c r="N2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="O2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="P2" t="n">
         <v>547440.6836327921</v>
-      </c>
-      <c r="P2" t="n">
-        <v>547440.6836327923</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.407704980418203e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,31 +26418,31 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905757959</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905757945</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="L4" t="n">
         <v>787.7936905758695</v>
@@ -26451,13 +26451,13 @@
         <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758216</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905757959</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758012</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26482,34 +26482,34 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-237156.857553574</v>
+        <v>-237156.8575535743</v>
       </c>
       <c r="C6" t="n">
         <v>352811.0216609704</v>
       </c>
       <c r="D6" t="n">
-        <v>352811.0216609697</v>
+        <v>352811.0216609701</v>
       </c>
       <c r="E6" t="n">
-        <v>-70494.47248339609</v>
+        <v>-70494.47248339641</v>
       </c>
       <c r="F6" t="n">
-        <v>454665.5639934996</v>
+        <v>454665.5639934994</v>
       </c>
       <c r="G6" t="n">
-        <v>454665.5639934995</v>
+        <v>454665.5639934993</v>
       </c>
       <c r="H6" t="n">
-        <v>454665.5639934993</v>
+        <v>454665.5639934994</v>
       </c>
       <c r="I6" t="n">
         <v>454665.5639934998</v>
       </c>
       <c r="J6" t="n">
-        <v>278242.3448009068</v>
+        <v>278242.3448009069</v>
       </c>
       <c r="K6" t="n">
-        <v>454665.5639934996</v>
+        <v>454665.5639934998</v>
       </c>
       <c r="L6" t="n">
-        <v>454665.5639934997</v>
+        <v>454665.5639934995</v>
       </c>
       <c r="M6" t="n">
-        <v>319864.5487596624</v>
+        <v>319864.5487596619</v>
       </c>
       <c r="N6" t="n">
         <v>454665.5639934996</v>
       </c>
       <c r="O6" t="n">
-        <v>454665.5639934996</v>
+        <v>454665.5639934999</v>
       </c>
       <c r="P6" t="n">
-        <v>454665.5639934998</v>
+        <v>454665.5639934997</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26808,13 +26808,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26823,13 +26823,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370132</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>24.37068509177089</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>188.3138582508885</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>59.64484785945363</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>43.13981385480321</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>75.03767962637795</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>290.5089987746479</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>77.28404477295297</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>17.8269410352471</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>46.81485747903764</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481161</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>106.1335092421368</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>90.08762952675502</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853695</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>214.0205184267038</v>
       </c>
     </row>
     <row r="11">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31370,7 +31370,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>56.98116194942361</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554473</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.647164540537</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633807</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647356</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141117</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188923</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396484</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653162</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034987</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372669</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078618</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644449</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175854</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383809</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678014</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701167</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197227</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315614</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,16 +31838,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>316.3120911305012</v>
+        <v>208.1209162056323</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -31856,19 +31856,19 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,13 +32075,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>347.0211127167677</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724846</v>
@@ -32093,10 +32093,10 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>325.4325261896762</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>408.5315900543038</v>
+        <v>265.5647021259964</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32555,7 +32555,7 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724847</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,28 +32783,28 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>175.8206005996249</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,25 +33020,25 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33047,7 +33047,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,34 +33257,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>232.4121821352559</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>128.900812301417</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927169</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>368.9552512585105</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>171.9901114440537</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,34 +33731,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>396.5537155454427</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,40 +33886,40 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,34 +33968,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,40 +34123,40 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,34 +34205,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>285.0631269188133</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>171.9901114440528</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,34 +34442,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>396.5537155454422</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35018,7 +35018,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181312</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060968</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770699</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047512</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713859</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137342</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873158</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>548.5980566540862</v>
+        <v>440.4068817292173</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>208.4667329368935</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
@@ -35741,10 +35741,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>509.9208874152831</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>10.73738595686865</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>756.532252314524</v>
+        <v>613.5653643862166</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>384.9870895382542</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>529.6284959442281</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>182.5837759459713</v>
+        <v>37.97916162526592</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,19 +36674,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>328.5772445435301</v>
       </c>
       <c r="N27" t="n">
-        <v>572.6057846157851</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36695,7 +36695,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>94.57074316089692</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
-        <v>380.1668871337021</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37008,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>226.359006814066</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>32.0083373580322</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37245,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>224.1074838346387</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37482,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>405.9623053864865</v>
       </c>
       <c r="O39" t="n">
-        <v>562.7344932293125</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37719,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>151.0887195044831</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>32.00833735803128</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37956,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38020,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>175.1095124747365</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38193,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2492991.175771829</v>
+        <v>2485974.160880118</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1573387.407423068</v>
+        <v>705704.6382035915</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9613321.913217336</v>
+        <v>9613321.913217338</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>20.82896278707619</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>366.3204083296485</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773045</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>77.390420905461</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>43.31785343914003</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.7431827303158</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>10.50623107476266</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>9.764863467406773</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>171.7498680634317</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>275.8542922530503</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>159.9332429020091</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>1.264003285459112</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>65.53811910388545</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>214.7563251735663</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051985</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>42.21319578930706</v>
       </c>
       <c r="G16" t="n">
-        <v>59.79293588514826</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>53.94831424933987</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.607300658592639</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>105.0903281190973</v>
+        <v>169.827716759979</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>49.68764252280508</v>
+        <v>122.65197883716</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>57.64843562452408</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>27.37255160319397</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>71.53733814736388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>57.64843562452468</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,10 +3720,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>47.22356630954613</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.97948033333836</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>188.4590648403943</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>114.4760112588804</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1349.514859931282</v>
+        <v>799.8716139843721</v>
       </c>
       <c r="C2" t="n">
-        <v>980.5523429908706</v>
+        <v>430.9090970439603</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>430.9090970439603</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>430.9090970439603</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>423.9635962947569</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520779</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520779</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1739.654191907094</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>1739.654191907094</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y2" t="n">
-        <v>1349.514859931282</v>
+        <v>799.8716139843721</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4406,46 +4406,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>773.5003462121384</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1297.647259770169</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1851.373795869721</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2291.509718890065</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>280.0282177315061</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>280.0282177315061</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4518,22 +4518,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>500.8207968750362</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X4" t="n">
-        <v>500.8207968750362</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>280.0282177315061</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1703.566937845283</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.566937845283</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2507.0262775787</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2288.391610550762</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2034.629825188854</v>
+        <v>2686.53673639725</v>
       </c>
       <c r="V5" t="n">
-        <v>1703.566937845283</v>
+        <v>2355.473849053679</v>
       </c>
       <c r="W5" t="n">
-        <v>1703.566937845283</v>
+        <v>2355.473849053679</v>
       </c>
       <c r="X5" t="n">
-        <v>1703.566937845283</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="Y5" t="n">
-        <v>1703.566937845283</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>718.2654857545084</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>718.2654857545084</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>463.5809975486215</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>463.5809975486215</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>959.5129866402885</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>959.5129866402885</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,10 +4822,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4837,19 +4837,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2109.717916941302</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2109.717916941302</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1736.252158680222</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1346.11282670441</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>389.0166762901907</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>389.0166762901907</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>389.0166762901907</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>726.852213211021</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="11">
@@ -5041,22 +5041,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899127</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1173.53487122796</v>
+        <v>479.0983322613959</v>
       </c>
       <c r="M12" t="n">
-        <v>1493.870190757661</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1823.732818421694</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2103.272883640391</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>843.1711433963917</v>
+        <v>879.5496456007323</v>
       </c>
       <c r="C13" t="n">
-        <v>674.2349604684848</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D13" t="n">
-        <v>674.2349604684848</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1281.990689574502</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>1281.990689574502</v>
       </c>
       <c r="V13" t="n">
-        <v>909.3712637033467</v>
+        <v>1281.990689574502</v>
       </c>
       <c r="W13" t="n">
-        <v>909.3712637033467</v>
+        <v>1281.990689574502</v>
       </c>
       <c r="X13" t="n">
-        <v>909.3712637033467</v>
+        <v>1281.990689574502</v>
       </c>
       <c r="Y13" t="n">
-        <v>909.3712637033467</v>
+        <v>1061.198110430972</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5360,22 +5360,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>246.2867756623457</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L15" t="n">
-        <v>493.0519035688097</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M15" t="n">
-        <v>1261.420049961271</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N15" t="n">
-        <v>2065.831628225422</v>
+        <v>1221.963989254138</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1891.427750556798</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2411.728372292545</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>588.5027791527951</v>
+        <v>588.5027791527954</v>
       </c>
       <c r="C16" t="n">
-        <v>419.5665962248883</v>
+        <v>419.5665962248885</v>
       </c>
       <c r="D16" t="n">
-        <v>419.5665962248883</v>
+        <v>419.5665962248885</v>
       </c>
       <c r="E16" t="n">
-        <v>419.5665962248883</v>
+        <v>419.5665962248885</v>
       </c>
       <c r="F16" t="n">
-        <v>419.5665962248883</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
@@ -5475,13 +5475,13 @@
         <v>1098.712528333286</v>
       </c>
       <c r="W16" t="n">
-        <v>809.2953582963253</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="X16" t="n">
-        <v>809.2953582963253</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="Y16" t="n">
-        <v>588.5027791527951</v>
+        <v>588.5027791527954</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5515,7 +5515,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>2483.5678433005</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L18" t="n">
-        <v>3097.464913057389</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M18" t="n">
-        <v>3865.83305944985</v>
+        <v>629.3975440735811</v>
       </c>
       <c r="N18" t="n">
-        <v>3975.738318832123</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O18" t="n">
-        <v>4645.202080134783</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P18" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1444.423023841397</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1444.423023841397</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1155.294385054956</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>900.6098968490687</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>611.1927268121082</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>611.1927268121082</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>390.400147668578</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5752,10 +5752,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,25 +5770,25 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
@@ -5831,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M21" t="n">
-        <v>1031.90644000511</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N21" t="n">
-        <v>1836.31801826926</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>1387.841167119728</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>1098.423997082767</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>870.4344461847497</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>870.4344461847497</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5971,37 +5971,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6068,28 +6068,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="N24" t="n">
-        <v>2107.322705390779</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O24" t="n">
-        <v>2386.862770609477</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>879.2482765610114</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1281.689320534781</v>
+        <v>1327.373122315499</v>
       </c>
       <c r="U25" t="n">
-        <v>1281.689320534781</v>
+        <v>1038.244483529058</v>
       </c>
       <c r="V25" t="n">
-        <v>1281.689320534781</v>
+        <v>783.5599953231707</v>
       </c>
       <c r="W25" t="n">
-        <v>1281.689320534781</v>
+        <v>494.1428252862101</v>
       </c>
       <c r="X25" t="n">
-        <v>1281.689320534781</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y25" t="n">
-        <v>1060.896741391251</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6238,19 +6238,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231263</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L27" t="n">
-        <v>674.4285624571608</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M27" t="n">
-        <v>981.7486957371223</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N27" t="n">
-        <v>1311.611323401155</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O27" t="n">
-        <v>1981.075084703814</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2501.375706439561</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3718.60307887712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3718.60307887712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3718.60307887712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4699.589931674293</v>
+        <v>1375.025382843599</v>
       </c>
       <c r="T28" t="n">
-        <v>4699.589931674293</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U28" t="n">
-        <v>4410.461292887851</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V28" t="n">
-        <v>4410.461292887851</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W28" t="n">
-        <v>4121.044122850891</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X28" t="n">
-        <v>4121.044122850891</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>3900.25154370736</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,31 +6530,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L30" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M30" t="n">
-        <v>1031.90644000511</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N30" t="n">
-        <v>1361.769067669142</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O30" t="n">
         <v>1797.533454227377</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>324.3840174432676</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C31" t="n">
-        <v>155.4478345153607</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028583</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6654,19 +6654,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352015</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W31" t="n">
-        <v>954.8146123150548</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X31" t="n">
-        <v>726.8250614170374</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y31" t="n">
-        <v>506.0324822735073</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,22 +6685,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514081</v>
@@ -6709,7 +6709,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6718,31 +6718,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L33" t="n">
-        <v>550.0023305088838</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M33" t="n">
-        <v>1318.370476901345</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N33" t="n">
-        <v>2122.782055165496</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O33" t="n">
-        <v>2371.535469249458</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1133.156678913841</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>1133.156678913841</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>1133.156678913841</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6925,49 +6925,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L36" t="n">
-        <v>510.3034215191122</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.130761344647</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N36" t="n">
-        <v>1517.99338900868</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3686.322319899659</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3517.386136971752</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3517.386136971752</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3517.386136971752</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3517.386136971752</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3517.386136971752</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3517.386136971752</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014293</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014293</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>4860.854573014293</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4606.170084808407</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>4316.752914771446</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4088.763363873429</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>3867.970784729899</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7168,25 +7168,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7256,25 +7256,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L39" t="n">
-        <v>1122.004430061687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M39" t="n">
-        <v>1890.372576454149</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N39" t="n">
-        <v>2374.820091292176</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>938.3016445311218</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>938.3016445311218</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7393,40 +7393,40 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899127</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095316</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L42" t="n">
-        <v>3525.606699852205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M42" t="n">
-        <v>3832.926833132166</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N42" t="n">
-        <v>4162.789460796199</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O42" t="n">
-        <v>4832.253222098858</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>4860.854573014292</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>773.166147484815</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C43" t="n">
-        <v>604.2299645569082</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D43" t="n">
-        <v>454.1133251445724</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>306.2002315621793</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>306.2002315621793</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1308.553578799928</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W43" t="n">
-        <v>954.8146123150548</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X43" t="n">
-        <v>954.8146123150548</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y43" t="n">
-        <v>954.8146123150548</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7672,28 +7672,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7715,37 +7715,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L45" t="n">
-        <v>674.428562457161</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M45" t="n">
-        <v>981.7486957371227</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N45" t="n">
-        <v>1311.611323401155</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O45" t="n">
-        <v>1981.075084703815</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2501.375706439562</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>324.384017443268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>324.384017443268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>324.384017443268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>324.384017443268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352016</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>954.8146123150552</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>726.8250614170379</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>506.0324822735078</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,10 +9008,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9020,16 +9020,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,28 +9245,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>242.3571256007808</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,28 +9482,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>217.737412776513</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,10 +9974,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>24.68170139601355</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10123,7 +10123,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10193,19 +10193,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>157.8023447874118</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10427,16 +10427,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10451,7 +10451,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,19 +10667,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>374.2497035813873</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10919,13 +10919,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,28 +11141,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>24.68170139601257</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>114.2938610780518</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>6.791235884822953</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>103.2078522336242</v>
       </c>
       <c r="G16" t="n">
-        <v>106.7006325782293</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>143.9724957342634</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24031,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>170.2246795233447</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>116.457232939292</v>
+        <v>51.71984429841024</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>148.2331674607982</v>
+        <v>75.26883114644322</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>90.96703739368829</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24894,19 +24894,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>198.3371037858432</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>147.0473152047309</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>52.77080983974732</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,16 +25554,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>204.9140770142819</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.5140881300392</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25839,10 +25839,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>33.08849621799493</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>30.94503676405088</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26043,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>821161.0254491887</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>821161.0254491887</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>821161.0254491889</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>821161.0254491887</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>821161.0254491889</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>821161.0254491889</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>821161.0254491887</v>
+        <v>821161.0254491889</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049991</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="F2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="G2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="H2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>547440.6836327922</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="K2" t="n">
+        <v>547440.6836327917</v>
+      </c>
+      <c r="L2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="M2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="N2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="O2" t="n">
         <v>547440.6836327923</v>
       </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
         <v>547440.683632792</v>
-      </c>
-      <c r="K2" t="n">
-        <v>547440.6836327924</v>
-      </c>
-      <c r="L2" t="n">
-        <v>547440.6836327924</v>
-      </c>
-      <c r="M2" t="n">
-        <v>547440.683632792</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547440.6836327926</v>
-      </c>
-      <c r="O2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="P2" t="n">
-        <v>547440.6836327921</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26429,34 +26429,34 @@
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905759236</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758695</v>
@@ -26469,46 +26469,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-237156.8575535744</v>
+        <v>-237156.8575535742</v>
       </c>
       <c r="C6" t="n">
-        <v>352811.0216609703</v>
+        <v>352811.0216609706</v>
       </c>
       <c r="D6" t="n">
-        <v>352811.0216609702</v>
+        <v>352811.0216609701</v>
       </c>
       <c r="E6" t="n">
-        <v>-70494.47248339643</v>
+        <v>-71469.06374311796</v>
       </c>
       <c r="F6" t="n">
-        <v>454665.5639934996</v>
+        <v>453690.9727337779</v>
       </c>
       <c r="G6" t="n">
-        <v>454665.5639934996</v>
+        <v>453690.9727337782</v>
       </c>
       <c r="H6" t="n">
-        <v>454665.5639934997</v>
+        <v>453690.9727337779</v>
       </c>
       <c r="I6" t="n">
-        <v>454665.5639934998</v>
+        <v>453690.9727337781</v>
       </c>
       <c r="J6" t="n">
-        <v>278242.3448009066</v>
+        <v>277267.7535411851</v>
       </c>
       <c r="K6" t="n">
-        <v>454665.5639935</v>
+        <v>453690.9727337776</v>
       </c>
       <c r="L6" t="n">
-        <v>454665.5639935</v>
+        <v>453690.9727337779</v>
       </c>
       <c r="M6" t="n">
-        <v>319864.5487596622</v>
+        <v>318889.9574999408</v>
       </c>
       <c r="N6" t="n">
-        <v>454665.5639935001</v>
+        <v>453690.9727337779</v>
       </c>
       <c r="O6" t="n">
-        <v>454665.5639934997</v>
+        <v>453690.9727337782</v>
       </c>
       <c r="P6" t="n">
-        <v>454665.5639934995</v>
+        <v>453690.9727337778</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>333.8540788336068</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>47.46376169114649</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>71.22505211275136</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27590,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>243.205144897451</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>40.67253007865571</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>240.7179364335266</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27827,22 +27827,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>215.2702419906775</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866308</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,16 +27909,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>51.89796621708456</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>98.95375469339439</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>65.10186255607513</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>285.2589950511319</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -31129,13 +31129,13 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423925</v>
       </c>
       <c r="L3" t="n">
-        <v>160.6967431133298</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31150,7 +31150,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034983</v>
@@ -31369,7 +31369,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423925</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>132.9984977071305</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,19 +31840,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>271.8618211135856</v>
+        <v>331.8073893088565</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31861,16 +31861,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32080,34 +32080,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>410.8654302134177</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>143.8894692628929</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32317,16 +32317,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>213.9849829127208</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32335,16 +32335,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,19 +32551,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,37 +32788,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>278.2239161437385</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>285.0631269188133</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,19 +33025,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,16 +33192,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927192</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,19 +33262,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,37 +33499,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>183.1626828433244</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,25 +33648,25 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130445</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,16 +33675,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,19 +33736,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33760,13 +33760,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,16 +33912,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33976,34 +33976,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>141.3402618185954</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,37 +34210,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>162.8646608642641</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
-        <v>392.9827086369148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>504.1477866371706</v>
+        <v>193.2530095289823</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>268.2691857689732</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>213.9849829127205</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>537.5560127407024</v>
       </c>
       <c r="N18" t="n">
-        <v>111.0154135174475</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>500.1011150176211</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>626.2245784039587</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>151.0887195044831</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>112.6947341810877</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,16 +36834,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081124</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
         <v>713.1546070951472</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>440.1660470285199</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -36934,7 +36934,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>415.4486483669094</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>684.6740806318535</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37408,7 +37408,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N39" t="n">
-        <v>489.3409240788156</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>28.89025344993386</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>112.6947341810867</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2485974.160880118</v>
+        <v>2490913.423729149</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>705704.6382035915</v>
+        <v>707370.9835306448</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9613321.913217338</v>
+        <v>9613321.913217336</v>
       </c>
     </row>
     <row r="11">
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>366.3204083296485</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>17.05324242164994</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="4">
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>43.31785343914003</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>10.50623107476266</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>338.2584895448977</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.7498680634317</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="8">
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>270.7773459850746</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>214.7563251735663</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>104.3370797092944</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051985</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385031</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>147.0147829826557</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>42.21319578930706</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>47.20011114811113</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>147.8740287942482</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>149.0799667719507</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505273908</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>169.827716759979</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>122.65197883716</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,7 +2772,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>26.15603929387842</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>27.37255160319397</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>256.3432811758636</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>82.35845141792571</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>188.4590648403943</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>241.5059801783576</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>799.8716139843721</v>
+        <v>1001.280783616703</v>
       </c>
       <c r="C2" t="n">
-        <v>430.9090970439603</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D2" t="n">
-        <v>430.9090970439603</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>430.9090970439603</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>423.9635962947569</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2448.71741646728</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2448.71741646728</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>2117.654529123709</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.476704221264</v>
+        <v>1764.885873853595</v>
       </c>
       <c r="X2" t="n">
-        <v>1190.010945960184</v>
+        <v>1391.420115592515</v>
       </c>
       <c r="Y2" t="n">
-        <v>799.8716139843721</v>
+        <v>1001.280783616703</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>113.6371076753678</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>368.8844281164663</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>773.5003462121382</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4494,37 +4494,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
         <v>684.3735766921516</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4600,10 +4600,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2686.53673639725</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2355.473849053679</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
         <v>2355.473849053679</v>
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,13 +4649,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4731,43 +4731,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
         <v>554.6442689908469</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,22 +4828,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
         <v>2368.607930856721</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5108,25 +5108,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>232.333204354932</v>
       </c>
       <c r="L12" t="n">
-        <v>479.0983322613959</v>
+        <v>479.098332261396</v>
       </c>
       <c r="M12" t="n">
         <v>1247.466478653857</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>879.5496456007323</v>
+        <v>991.0842369787848</v>
       </c>
       <c r="C13" t="n">
-        <v>710.6134626728254</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="D13" t="n">
-        <v>710.6134626728254</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1281.990689574502</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1281.990689574502</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1281.990689574502</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>1281.990689574502</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>1281.990689574502</v>
+        <v>1393.525280952555</v>
       </c>
       <c r="Y13" t="n">
-        <v>1061.198110430972</v>
+        <v>1172.732701809025</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,22 +5290,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M15" t="n">
-        <v>417.5524109899876</v>
+        <v>417.5524109899877</v>
       </c>
       <c r="N15" t="n">
-        <v>1221.963989254138</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O15" t="n">
-        <v>1891.427750556798</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2411.728372292545</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>588.5027791527954</v>
+        <v>877.6314179392369</v>
       </c>
       <c r="C16" t="n">
-        <v>419.5665962248885</v>
+        <v>708.6952350113301</v>
       </c>
       <c r="D16" t="n">
-        <v>419.5665962248885</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E16" t="n">
-        <v>419.5665962248885</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5469,19 +5469,19 @@
         <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>1098.712528333286</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W16" t="n">
-        <v>809.2953582963255</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X16" t="n">
-        <v>809.2953582963255</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="Y16" t="n">
-        <v>588.5027791527954</v>
+        <v>877.6314179392369</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5509,19 +5509,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5542,25 +5542,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5603,7 +5603,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M18" t="n">
-        <v>629.3975440735811</v>
+        <v>629.3975440735812</v>
       </c>
       <c r="N18" t="n">
         <v>1433.809122337732</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="20">
@@ -5752,16 +5752,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5770,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5840,7 +5840,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M21" t="n">
-        <v>323.6581146605669</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N21" t="n">
         <v>1128.069692924718</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1349.548564705126</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1349.548564705126</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>1349.548564705126</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>1094.864076499239</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>805.4469064622789</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>577.4573555642615</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
         <v>1701.09316900344</v>
@@ -5977,61 +5977,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805453</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822445</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1327.373122315499</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1038.244483529058</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>783.5599953231707</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>494.1428252862101</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6214,31 +6214,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6253,10 +6253,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6314,7 +6314,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M27" t="n">
-        <v>334.288126757867</v>
+        <v>334.2881267578673</v>
       </c>
       <c r="N27" t="n">
         <v>1138.699705022018</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1375.025382843599</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1151.239967633105</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>862.1113288466635</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V28" t="n">
-        <v>607.4268406407766</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W28" t="n">
-        <v>318.0096706038159</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="29">
@@ -6442,40 +6442,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6551,7 +6551,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M30" t="n">
-        <v>323.6581146605669</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N30" t="n">
         <v>1128.069692924718</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>920.3704617344999</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,10 +6718,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6788,7 +6788,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M33" t="n">
-        <v>334.288126757867</v>
+        <v>334.2881267578673</v>
       </c>
       <c r="N33" t="n">
         <v>1138.699705022018</v>
@@ -6885,10 +6885,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
         <v>869.3083006011506</v>
@@ -6925,49 +6925,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7025,7 +7025,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M36" t="n">
-        <v>334.288126757867</v>
+        <v>334.2881267578673</v>
       </c>
       <c r="N36" t="n">
         <v>1138.699705022018</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="38">
@@ -7174,28 +7174,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7262,7 +7262,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6581146605669</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N39" t="n">
         <v>1128.069692924718</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>330.8254548799443</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,13 +7399,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7414,25 +7414,25 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7499,7 +7499,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M42" t="n">
-        <v>323.6581146605669</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N42" t="n">
         <v>1128.069692924718</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>247.3337308726216</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C43" t="n">
-        <v>247.3337308726216</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1308.553578799928</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1019.424940013486</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>764.7404518075996</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="W43" t="n">
-        <v>475.3232817706389</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="X43" t="n">
-        <v>247.3337308726216</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="Y43" t="n">
-        <v>247.3337308726216</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7675,22 +7675,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605669</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N45" t="n">
         <v>1128.069692924718</v>
@@ -7833,10 +7833,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
         <v>869.3083006011506</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>110.3707964059377</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -9029,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>370.8623401849285</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9962,7 +9962,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417972</v>
+        <v>381.5997261417975</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9977,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10123,7 +10123,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10199,7 +10199,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>370.8623401849285</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10436,7 +10436,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417972</v>
+        <v>381.5997261417975</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10673,7 +10673,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>381.5997261417972</v>
+        <v>381.5997261417975</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10910,7 +10910,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>370.8623401849285</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11147,7 +11147,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>370.8623401849285</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11384,7 +11384,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849285</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>6.791235884822953</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>121.3725756797428</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>1.600690035556653</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>103.2078522336242</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23895,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>178.509544240926</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>50.04678118935502</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>51.71984429841024</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>75.26883114644322</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>192.4286140582164</v>
       </c>
     </row>
     <row r="29">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,22 +24888,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>198.3371037858432</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>29.89407122271371</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>64.07551122864346</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25794,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25836,22 +25836,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>33.08849621799493</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>10.63166314547038</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>821161.0254491889</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049986</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049989</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049991</v>
-      </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="F2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327917</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="I2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.683632792</v>
       </c>
       <c r="J2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327917</v>
       </c>
       <c r="K2" t="n">
-        <v>547440.6836327917</v>
+        <v>547440.683632792</v>
       </c>
       <c r="L2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="M2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="N2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="O2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="P2" t="n">
         <v>547440.6836327921</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="O2" t="n">
-        <v>547440.6836327923</v>
-      </c>
-      <c r="P2" t="n">
-        <v>547440.683632792</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758165</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
@@ -26438,7 +26438,7 @@
         <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759462</v>
       </c>
       <c r="J4" t="n">
         <v>787.7936905758695</v>
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-237156.8575535742</v>
+        <v>-237156.8575535743</v>
       </c>
       <c r="C6" t="n">
-        <v>352811.0216609706</v>
+        <v>352811.0216609704</v>
       </c>
       <c r="D6" t="n">
-        <v>352811.0216609701</v>
+        <v>352811.0216609702</v>
       </c>
       <c r="E6" t="n">
-        <v>-71469.06374311796</v>
+        <v>-70591.93160936858</v>
       </c>
       <c r="F6" t="n">
-        <v>453690.9727337779</v>
+        <v>454568.1048675273</v>
       </c>
       <c r="G6" t="n">
-        <v>453690.9727337782</v>
+        <v>454568.1048675271</v>
       </c>
       <c r="H6" t="n">
-        <v>453690.9727337779</v>
+        <v>454568.1048675276</v>
       </c>
       <c r="I6" t="n">
-        <v>453690.9727337781</v>
+        <v>454568.1048675272</v>
       </c>
       <c r="J6" t="n">
-        <v>277267.7535411851</v>
+        <v>278144.8856749341</v>
       </c>
       <c r="K6" t="n">
-        <v>453690.9727337776</v>
+        <v>454568.1048675273</v>
       </c>
       <c r="L6" t="n">
-        <v>453690.9727337779</v>
+        <v>454568.1048675274</v>
       </c>
       <c r="M6" t="n">
-        <v>318889.9574999408</v>
+        <v>319767.0896336905</v>
       </c>
       <c r="N6" t="n">
-        <v>453690.9727337779</v>
+        <v>454568.1048675271</v>
       </c>
       <c r="O6" t="n">
-        <v>453690.9727337782</v>
+        <v>454568.1048675272</v>
       </c>
       <c r="P6" t="n">
-        <v>453690.9727337778</v>
+        <v>454568.1048675274</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>47.46376169114649</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>199.3950779360079</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>243.205144897451</v>
+        <v>243.2051448974512</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,13 +27672,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>240.7179364335266</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>10.9824791725153</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>46.83478528866308</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="8">
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339439</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.165290086646564e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29058,7 +29058,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.691091711109038e-12</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423925</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>87.78329382423925</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,10 +31594,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,19 +31840,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>232.4121821352565</v>
       </c>
       <c r="L12" t="n">
-        <v>331.8073893088565</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32089,7 +32089,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>380.4309478731436</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32098,16 +32098,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>143.8894692628929</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32323,10 +32323,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>213.9849829127208</v>
+        <v>213.9849829127209</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32563,7 +32563,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32800,7 +32800,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>278.2239161437385</v>
+        <v>278.2239161437387</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946997</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33037,7 +33037,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33274,7 +33274,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,16 +33438,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33511,7 +33511,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,16 +33675,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33748,7 +33748,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,16 +33912,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33985,7 +33985,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,16 +34149,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34222,7 +34222,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34459,7 +34459,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.29709682323572</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>94.57074316089751</v>
       </c>
       <c r="L12" t="n">
-        <v>193.2530095289823</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35737,16 +35737,16 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>728.4316101333638</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.9849829127205</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,13 +35971,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>537.5560127407024</v>
+        <v>537.5560127407025</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>228.7283062629101</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
@@ -36223,7 +36223,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36448,10 +36448,10 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>626.2245784039587</v>
+        <v>626.224578403959</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
@@ -36460,7 +36460,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36612,13 +36612,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197789</v>
+        <v>239.4656922197792</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,16 +36834,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
         <v>713.1546070951472</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>228.7283062629101</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -36934,7 +36934,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4656922197789</v>
+        <v>239.4656922197792</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>239.4656922197789</v>
+        <v>239.4656922197792</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>228.7283062629101</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
@@ -37645,7 +37645,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,13 +37867,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>228.7283062629101</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -37882,7 +37882,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,13 +38104,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629101</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
@@ -38119,7 +38119,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
